--- a/biology/Zoologie/Draeculacephala/Draeculacephala.xlsx
+++ b/biology/Zoologie/Draeculacephala/Draeculacephala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Draeculacephala est un genre de cicadelles. C'est l'un des genres de cicadelles les plus communs et les plus répandus dans le Nouveau Monde. Il existe au moins 25 espèces décrites chez Draeculacephala [1],[2],[3],[4].
-Les adultes de la plupart des espèces de Draeculacephala sont de couleur verte, bien que quelques-uns soient de couleur paille. Ils sont généralement de 6 à 11 mm de longueur, avec une tête triangulaire qui se projette vers l'avant en un point [5],[4].  Ce caractère implique certainement ce nom de genre de « tête de Dracula »[4]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Draeculacephala est un genre de cicadelles. C'est l'un des genres de cicadelles les plus communs et les plus répandus dans le Nouveau Monde. Il existe au moins 25 espèces décrites chez Draeculacephala .
+Les adultes de la plupart des espèces de Draeculacephala sont de couleur verte, bien que quelques-uns soient de couleur paille. Ils sont généralement de 6 à 11 mm de longueur, avec une tête triangulaire qui se projette vers l'avant en un point ,.  Ce caractère implique certainement ce nom de genre de « tête de Dracula ». 
 Ces 27 espèces appartiennent au genre Draeculacephala :
 Draeculacephala albipicta Dietrich, 1994 c g
 Draeculacephala angulifera Walker, 1851 c g b
@@ -512,7 +524,7 @@
 Draeculacephala soluta Gibson, 1919 c g
 Draeculacephala tucumanensis Dietrich, 1994 c g
 Draeculacephala youngi Dietrich, 1994 c g
-Sources de données : i = ITIS[1],  c = Catalog of Life[2],  g = GBIF[3],  b = Bugguide.net[4] 
+Sources de données : i = ITIS,  c = Catalog of Life,  g = GBIF,  b = Bugguide.net 
 </t>
         </is>
       </c>
